--- a/Inputs/Bupa_BINS_Global/benefits.xlsx
+++ b/Inputs/Bupa_BINS_Global/benefits.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="119">
   <si>
     <t xml:space="preserve">User Type</t>
   </si>
@@ -147,9 +147,6 @@
     <t xml:space="preserve">Oncology</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Organ Transplant</t>
   </si>
   <si>
@@ -174,13 +171,13 @@
     <t xml:space="preserve">Not Available</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full within OP limit of USD 12,800  (within max cumulative 15 consultations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full within OP limit of USD 25,500  (within max cumulative 30 consultations)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Covered in full   (within max cumulative 60 consultations)</t>
+    <t xml:space="preserve">Covered in full within OP limit of USD 12,800 (within max cumulative 15 consultations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full within OP limit of USD 25,500 (within max cumulative 30 consultations)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Covered in full  (within max cumulative 60 consultations)</t>
   </si>
   <si>
     <t xml:space="preserve">Out-patient Specialists</t>
@@ -238,7 +235,7 @@
     <t xml:space="preserve">Covered in full within OP limit of USD 25,500 (up to 30 visits, within max cumulative 30 consultations)</t>
   </si>
   <si>
-    <t xml:space="preserve">Covered in full up to 60 visits  (within max cumulative 60 consultations)
+    <t xml:space="preserve">Covered in full up to 60 visits (within max cumulative 60 consultations)
 </t>
   </si>
   <si>
@@ -349,15 +346,15 @@
     <t xml:space="preserve">Alternative Medicines</t>
   </si>
   <si>
-    <t xml:space="preserve">Osteopathy &amp; Chiropractic therapy- Covered in full within OP limit of USD 12,000  (up to 10 visits, within max cumulative 15 consultations)
+    <t xml:space="preserve">Osteopathy &amp; Chiropractic therapy- Covered in full within OP limit of USD 12,000 (up to 10 visits, within max cumulative 15 consultations)
 Acupuncture, Reflexology, Homeopathy, Naturopathy &amp; Chinese Medicine- Not Available</t>
   </si>
   <si>
-    <t xml:space="preserve">Osteopathy &amp; Chiropractic therapy- Covered in full within OP limit of  USD 25,500 (up to 10 visits, within max cumulative 30 consultations)
+    <t xml:space="preserve">Osteopathy &amp; Chiropractic therapy- Covered in full within OP limit of USD 25,500 (up to 10 visits, within max cumulative 30 consultations)
 Acupuncture, Reflexology, Homeopathy, Naturopathy &amp; Chinese Medicine- Covered in full within OP limit of USD 25,500 (up to 15 visits)</t>
   </si>
   <si>
-    <t xml:space="preserve">Osteopathy, Chiropractic therapy, Acupuncture &amp; Reflexology- Covered in full  (within max cumulative 60 consultations)
+    <t xml:space="preserve">Osteopathy, Chiropractic therapy, Acupuncture &amp; Reflexology- Covered in full (within max cumulative 60 consultations)
 Homeopathy, Naturopathy and Chinese Medicine- Covered in full up to 20 visits </t>
   </si>
   <si>
@@ -412,16 +409,16 @@
     <t xml:space="preserve">Copays</t>
   </si>
   <si>
-    <t xml:space="preserve">IP-NIL per year deductible/IP-USD 850  per year deductible/IP-USD 1,700  per year deductible/IP-USD 3,400 per year deductible/IP-USD 8,500 per year deductible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-NIL per year deductible/IP-USD 850  per year deductible/IP-USD 1,700  per year deductible/IP-USD 3,400 per year deductible/IP-USD 8,500 per year deductible/OP-NIL per visit deductible/OP-USD 425 per visit deductible/OP-USD 850 per visit deductible/OP-USD 1,700 per visit deductible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-NIL per year deductible/IP-USD 1,700  per year deductible/IP-USD 3,400 per year deductible/IP-USD 8,500 per year deductible/USD 12,750  per year deductible/OP-NIL per visit deductible/OP-USD 425 per visit deductible/OP-USD 850 per visit deductible/OP-USD 1,700 per visit deductible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IP-NIL per year deductible/IP-USD 3,400 per year deductible/IP-USD 8,500 per year deductible/USD 12,750  per year deductible/USD 22,550 per year deductible/OP-NIL per visit deductible/OP-USD 425 per visit deductible/OP-USD 850 per visit deductible/OP-USD 1,700 per visit deductible</t>
+    <t xml:space="preserve">IP-NIL per year deductible/IP-USD 850 per year deductible/IP-USD 1,700 per year deductible/IP-USD 3,400 per year deductible/IP-USD 8,500 per year deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-NIL per year deductible/IP-USD 850 per year deductible/IP-USD 1,700 per year deductible/IP-USD 3,400 per year deductible/IP-USD 8,500 per year deductible/OP-NIL per visit deductible/OP-USD 425 per visit deductible/OP-USD 850 per visit deductible/OP-USD 1,700 per visit deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-NIL per year deductible/IP-USD 1,700 per year deductible/IP-USD 3,400 per year deductible/IP-USD 8,500 per year deductible/IP-USD 12,750 per year deductible/OP-NIL per visit deductible/OP-USD 425 per visit deductible/OP-USD 850 per visit deductible/OP-USD 1,700 per visit deductible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IP-NIL per year deductible/IP-USD 3,400 per year deductible/IP-USD 8,500 per year deductible/IP-USD 12,750 per year deductible/IP-USD 22,550 per year deductible/OP-NIL per visit deductible/OP-USD 425 per visit deductible/OP-USD 850 per visit deductible/OP-USD 1,700 per visit deductible</t>
   </si>
   <si>
     <t xml:space="preserve">IP-NIL per year deductible/OP-NIL per visit deductible</t>
@@ -841,11 +838,11 @@
   </sheetPr>
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C50" activeCellId="0" sqref="C50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="61.18"/>
@@ -1114,7 +1111,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>26</v>
@@ -1134,19 +1131,19 @@
         <v>21</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>40</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>26</v>
@@ -1157,7 +1154,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -1168,19 +1165,19 @@
         <v>21</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="E16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="G16" s="17" t="s">
         <v>26</v>
@@ -1191,19 +1188,19 @@
         <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="D17" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>45</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>46</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>26</v>
@@ -1214,19 +1211,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="F18" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>26</v>
@@ -1237,22 +1234,22 @@
         <v>21</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="E19" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="G19" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1260,19 +1257,19 @@
         <v>21</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="E20" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>61</v>
-      </c>
       <c r="F20" s="20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G20" s="17" t="s">
         <v>26</v>
@@ -1283,19 +1280,19 @@
         <v>24</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="E21" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="F21" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>26</v>
@@ -1306,7 +1303,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22" s="16"/>
       <c r="D22" s="16"/>
@@ -1317,22 +1314,22 @@
         <v>24</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="22" t="s">
+      <c r="G23" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1340,22 +1337,22 @@
         <v>24</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="G24" s="22" t="s">
         <v>71</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,22 +1360,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="17" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1386,22 +1383,22 @@
         <v>21</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,7 +1406,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
@@ -1420,22 +1417,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="F28" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G28" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="25.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1443,22 +1440,22 @@
         <v>24</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F29" s="10" t="s">
-        <v>83</v>
-      </c>
       <c r="G29" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1466,7 +1463,7 @@
         <v>19</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="16"/>
@@ -1477,22 +1474,22 @@
         <v>24</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>87</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1500,22 +1497,22 @@
         <v>24</v>
       </c>
       <c r="B32" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="26" t="s">
+      <c r="E32" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="F32" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>92</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,22 +1520,22 @@
         <v>21</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="22" t="s">
+      <c r="E33" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="F33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="22" t="s">
+      <c r="G33" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,22 +1543,22 @@
         <v>21</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" s="22" t="s">
+      <c r="E34" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="F34" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="22" t="s">
-        <v>102</v>
-      </c>
       <c r="G34" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,22 +1566,22 @@
         <v>24</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1592,22 +1589,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>105</v>
-      </c>
       <c r="D36" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G36" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1615,22 +1612,22 @@
         <v>21</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1638,22 +1635,22 @@
         <v>21</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1661,7 +1658,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16"/>
@@ -1672,7 +1669,7 @@
         <v>24</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27"/>
@@ -1683,7 +1680,7 @@
         <v>24</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="28"/>
@@ -1694,7 +1691,7 @@
         <v>24</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="28"/>
@@ -1705,7 +1702,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -1716,7 +1713,7 @@
         <v>7</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16"/>
@@ -1727,22 +1724,22 @@
         <v>7</v>
       </c>
       <c r="B45" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="32" t="s">
         <v>114</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="D45" s="32" t="s">
         <v>115</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="E45" s="32" t="s">
         <v>116</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="F45" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="G45" s="33" t="s">
         <v>118</v>
-      </c>
-      <c r="G45" s="33" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>
